--- a/database/industries/ravankar/shaspa/cost/quarterly.xlsx
+++ b/database/industries/ravankar/shaspa/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ravankar\shaspa\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4861F7DE-32A3-48C5-A5D7-C4E2BF66D1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -279,7 +280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,7 +296,6 @@
       <sz val="32"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -450,7 +450,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -462,7 +462,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -509,6 +509,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -544,6 +561,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,17 +729,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -720,7 +754,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -737,7 +771,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -754,7 +788,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -769,7 +803,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -786,7 +820,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -803,7 +837,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -818,7 +852,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -855,7 +889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -870,7 +904,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -907,7 +941,7 @@
         <v>34023782</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -944,7 +978,7 @@
         <v>217185</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -981,7 +1015,7 @@
         <v>2963168</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1018,7 +1052,7 @@
         <v>37204135</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1055,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1126,7 @@
         <v>37204135</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1163,7 @@
         <v>-53526</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1166,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1237,7 @@
         <v>37150609</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1240,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1277,7 +1311,7 @@
         <v>3140101</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1314,7 +1348,7 @@
         <v>40290710</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1351,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1388,7 +1422,7 @@
         <v>40290710</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1403,7 +1437,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1418,7 +1452,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1433,7 +1467,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1470,7 +1504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1485,7 +1519,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1524,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1563,7 +1597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1602,7 +1636,7 @@
         <v>7187</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
@@ -1641,7 +1675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>37</v>
       </c>
@@ -1680,7 +1714,7 @@
         <v>60145</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
@@ -1717,7 +1751,7 @@
         <v>67332</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1732,7 +1766,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1747,7 +1781,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1762,7 +1796,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1799,7 +1833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1814,7 +1848,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1853,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
@@ -1892,7 +1926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
@@ -1931,7 +1965,7 @@
         <v>27724</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>36</v>
       </c>
@@ -1970,7 +2004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>37</v>
       </c>
@@ -2009,7 +2043,7 @@
         <v>116087</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>17</v>
       </c>
@@ -2046,7 +2080,7 @@
         <v>143811</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2061,7 +2095,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2076,7 +2110,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2091,7 +2125,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>39</v>
       </c>
@@ -2128,7 +2162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2143,7 +2177,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -2182,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2221,7 +2255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>34</v>
       </c>
@@ -2260,7 +2294,7 @@
         <v>29329</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>36</v>
       </c>
@@ -2299,7 +2333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>37</v>
       </c>
@@ -2338,7 +2372,7 @@
         <v>132375</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>17</v>
       </c>
@@ -2375,7 +2409,7 @@
         <v>161704</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2390,7 +2424,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2405,7 +2439,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2420,7 +2454,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>40</v>
       </c>
@@ -2457,7 +2491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2472,7 +2506,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
@@ -2511,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
@@ -2550,7 +2584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>34</v>
       </c>
@@ -2589,7 +2623,7 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>36</v>
       </c>
@@ -2628,7 +2662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>37</v>
       </c>
@@ -2667,7 +2701,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>17</v>
       </c>
@@ -2704,7 +2738,7 @@
         <v>49439</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2719,7 +2753,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2734,7 +2768,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2749,7 +2783,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>41</v>
       </c>
@@ -2786,7 +2820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2801,7 +2835,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>29</v>
       </c>
@@ -2840,7 +2874,7 @@
         <v>14459165</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>32</v>
       </c>
@@ -2879,7 +2913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>34</v>
       </c>
@@ -2918,7 +2952,7 @@
         <v>1604078</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>36</v>
       </c>
@@ -2957,7 +2991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>37</v>
       </c>
@@ -2996,7 +3030,7 @@
         <v>10636686</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>17</v>
       </c>
@@ -3033,7 +3067,7 @@
         <v>26699929</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3048,7 +3082,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3063,7 +3097,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3078,7 +3112,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>43</v>
       </c>
@@ -3115,7 +3149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3130,7 +3164,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>29</v>
       </c>
@@ -3169,7 +3203,7 @@
         <v>4764530</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>32</v>
       </c>
@@ -3208,7 +3242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>34</v>
       </c>
@@ -3247,7 +3281,7 @@
         <v>4951622</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>36</v>
       </c>
@@ -3286,7 +3320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>37</v>
       </c>
@@ -3325,7 +3359,7 @@
         <v>17330839</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>17</v>
       </c>
@@ -3362,7 +3396,7 @@
         <v>27046991</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3377,7 +3411,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3392,7 +3426,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3407,7 +3441,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>44</v>
       </c>
@@ -3444,7 +3478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3459,7 +3493,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>29</v>
       </c>
@@ -3498,7 +3532,7 @@
         <v>6869973</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>32</v>
       </c>
@@ -3537,7 +3571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>34</v>
       </c>
@@ -3576,7 +3610,7 @@
         <v>5620104</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>36</v>
       </c>
@@ -3615,7 +3649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>37</v>
       </c>
@@ -3654,7 +3688,7 @@
         <v>21533705</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>17</v>
       </c>
@@ -3691,7 +3725,7 @@
         <v>34023782</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3706,7 +3740,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3721,7 +3755,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3736,7 +3770,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>45</v>
       </c>
@@ -3773,7 +3807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3788,7 +3822,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>29</v>
       </c>
@@ -3827,7 +3861,7 @@
         <v>12353722</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>32</v>
       </c>
@@ -3866,7 +3900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>34</v>
       </c>
@@ -3905,7 +3939,7 @@
         <v>935596</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>36</v>
       </c>
@@ -3944,7 +3978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>37</v>
       </c>
@@ -3983,7 +4017,7 @@
         <v>6433820</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>17</v>
       </c>
@@ -4020,7 +4054,7 @@
         <v>19723138</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4035,7 +4069,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4050,7 +4084,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4065,7 +4099,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>46</v>
       </c>
@@ -4102,7 +4136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4117,7 +4151,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>32</v>
       </c>
@@ -4156,7 +4190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>34</v>
       </c>
@@ -4195,7 +4229,7 @@
         <v>223191596</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>36</v>
       </c>
@@ -4234,7 +4268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>37</v>
       </c>
@@ -4273,7 +4307,7 @@
         <v>176850711</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4288,7 +4322,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4303,7 +4337,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4318,7 +4352,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>49</v>
       </c>
@@ -4355,7 +4389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4370,7 +4404,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>29</v>
       </c>
@@ -4409,7 +4443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>32</v>
       </c>
@@ -4448,7 +4482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>34</v>
       </c>
@@ -4487,7 +4521,7 @@
         <v>178604170</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>36</v>
       </c>
@@ -4526,7 +4560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>37</v>
       </c>
@@ -4565,7 +4599,7 @@
         <v>149291816</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4580,7 +4614,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4595,7 +4629,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4610,7 +4644,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>51</v>
       </c>
@@ -4647,7 +4681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4662,7 +4696,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>29</v>
       </c>
@@ -4701,7 +4735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>32</v>
       </c>
@@ -4740,7 +4774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>34</v>
       </c>
@@ -4779,7 +4813,7 @@
         <v>191622762</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>36</v>
       </c>
@@ -4818,7 +4852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>37</v>
       </c>
@@ -4857,7 +4891,7 @@
         <v>162671992</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4872,7 +4906,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4887,7 +4921,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4902,7 +4936,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>52</v>
       </c>
@@ -4939,7 +4973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4954,7 +4988,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>32</v>
       </c>
@@ -4993,7 +5027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>34</v>
       </c>
@@ -5032,7 +5066,7 @@
         <v>167609459</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>36</v>
       </c>
@@ -5071,7 +5105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>37</v>
       </c>
@@ -5110,7 +5144,7 @@
         <v>146699957</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5125,7 +5159,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5140,7 +5174,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5155,7 +5189,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>53</v>
       </c>
@@ -5192,7 +5226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5207,7 +5241,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>54</v>
       </c>
@@ -5244,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>55</v>
       </c>
@@ -5281,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>56</v>
       </c>
@@ -5318,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>57</v>
       </c>
@@ -5355,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>58</v>
       </c>
@@ -5392,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>59</v>
       </c>
@@ -5429,7 +5463,7 @@
         <v>638417</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>60</v>
       </c>
@@ -5466,7 +5500,7 @@
         <v>1014925</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>61</v>
       </c>
@@ -5503,7 +5537,7 @@
         <v>741770</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>62</v>
       </c>
@@ -5540,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>63</v>
       </c>
@@ -5577,7 +5611,7 @@
         <v>568056</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="14" t="s">
         <v>17</v>
       </c>
@@ -5614,7 +5648,7 @@
         <v>2963168</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5629,7 +5663,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5644,7 +5678,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5659,7 +5693,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B169" s="7" t="s">
         <v>64</v>
       </c>
@@ -5676,7 +5710,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5691,7 +5725,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>65</v>
       </c>
@@ -5710,7 +5744,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>67</v>
       </c>
@@ -5729,7 +5763,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>69</v>
       </c>
@@ -5740,7 +5774,7 @@
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>70</v>
       </c>
@@ -5751,7 +5785,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>70</v>
       </c>
@@ -5762,7 +5796,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>73</v>
       </c>
@@ -5773,7 +5807,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>75</v>
       </c>
@@ -5784,7 +5818,7 @@
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>77</v>
       </c>
@@ -5795,7 +5829,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>79</v>
       </c>
@@ -5806,7 +5840,7 @@
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>80</v>
       </c>
@@ -5817,7 +5851,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>81</v>
       </c>
@@ -5828,7 +5862,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>82</v>
       </c>
@@ -5839,7 +5873,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>83</v>
       </c>

--- a/database/industries/ravankar/shaspa/cost/quarterly.xlsx
+++ b/database/industries/ravankar/shaspa/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3D9040-A1DE-459E-A9A7-74E252AEE130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A111916-3906-414F-B447-B8C6DB2DDD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -100,13 +115,13 @@
     <t>متفاوت</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>مواد بسته بندی و ظروف سازی</t>
   </si>
   <si>
     <t>عدد</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>آیزروسایکل</t>
@@ -715,16 +730,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I185"/>
+  <dimension ref="B1:N185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -733,8 +748,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -745,8 +765,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -757,8 +782,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -767,8 +797,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -779,8 +814,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -791,8 +831,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -801,8 +846,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -823,8 +873,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -833,98 +898,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>10308434</v>
+      </c>
+      <c r="F10" s="9">
+        <v>15489639</v>
+      </c>
+      <c r="G10" s="9">
+        <v>17799974</v>
+      </c>
+      <c r="H10" s="9">
+        <v>21160074</v>
+      </c>
+      <c r="I10" s="9">
+        <v>22443540</v>
+      </c>
+      <c r="J10" s="9">
         <v>24698137</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>24773380</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>33794555</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>34050643</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>27686200</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>177351</v>
+      </c>
+      <c r="F11" s="11">
+        <v>227478</v>
+      </c>
+      <c r="G11" s="11">
+        <v>169115</v>
+      </c>
+      <c r="H11" s="11">
+        <v>159568</v>
+      </c>
+      <c r="I11" s="11">
+        <v>449378</v>
+      </c>
+      <c r="J11" s="11">
         <v>-101761</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>1026260</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>580504</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>401109</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>1137977</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>944835</v>
+      </c>
+      <c r="F12" s="9">
+        <v>589752</v>
+      </c>
+      <c r="G12" s="9">
+        <v>937055</v>
+      </c>
+      <c r="H12" s="9">
+        <v>882084</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1835793</v>
+      </c>
+      <c r="J12" s="9">
         <v>1734213</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>2670325</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>2365679</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>2988620</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>2459575</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>11430620</v>
+      </c>
+      <c r="F13" s="13">
+        <v>16306869</v>
+      </c>
+      <c r="G13" s="13">
+        <v>18906144</v>
+      </c>
+      <c r="H13" s="13">
+        <v>22201726</v>
+      </c>
+      <c r="I13" s="13">
+        <v>24728711</v>
+      </c>
+      <c r="J13" s="13">
         <v>26330589</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>28469965</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>36740738</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>37440372</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>31283752</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -943,54 +1073,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>11430620</v>
+      </c>
+      <c r="F15" s="13">
+        <v>16306869</v>
+      </c>
+      <c r="G15" s="13">
+        <v>18906144</v>
+      </c>
+      <c r="H15" s="13">
+        <v>22201726</v>
+      </c>
+      <c r="I15" s="13">
+        <v>24728711</v>
+      </c>
+      <c r="J15" s="13">
         <v>26330589</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>28469965</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>36740738</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>37440372</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>31283752</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-18889</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-15279</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-18597</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-51156</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-23276</v>
+      </c>
+      <c r="J16" s="9">
         <v>-3459</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-44501</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-118682</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-59534</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-30758</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1009,32 +1184,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>11411731</v>
+      </c>
+      <c r="F18" s="15">
+        <v>16291590</v>
+      </c>
+      <c r="G18" s="15">
+        <v>18887547</v>
+      </c>
+      <c r="H18" s="15">
+        <v>22150570</v>
+      </c>
+      <c r="I18" s="15">
+        <v>24705435</v>
+      </c>
+      <c r="J18" s="15">
         <v>26327130</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>28425464</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>36622056</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>37380838</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>31252994</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1042,65 +1247,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4415592</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>2410292</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>9667818</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>14191885</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>10595505</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>8277</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-1541784</v>
+      </c>
+      <c r="G20" s="9">
+        <v>11906</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-7234118</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1185767</v>
+      </c>
+      <c r="J20" s="9">
         <v>-2410292</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-9667819</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-14191885</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-10595505</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-11412084</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>11420008</v>
+      </c>
+      <c r="F21" s="13">
+        <v>14749806</v>
+      </c>
+      <c r="G21" s="13">
+        <v>18899453</v>
+      </c>
+      <c r="H21" s="13">
+        <v>19332044</v>
+      </c>
+      <c r="I21" s="13">
+        <v>25891202</v>
+      </c>
+      <c r="J21" s="13">
         <v>23916838</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>27216288</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>32097989</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>40977218</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>30436416</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1119,30 +1369,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>11420008</v>
+      </c>
+      <c r="F23" s="13">
+        <v>14749806</v>
+      </c>
+      <c r="G23" s="13">
+        <v>18899453</v>
+      </c>
+      <c r="H23" s="13">
+        <v>19332044</v>
+      </c>
+      <c r="I23" s="13">
+        <v>25891202</v>
+      </c>
+      <c r="J23" s="13">
         <v>23916838</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>27216288</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>32097989</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>40977218</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>30436416</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1151,8 +1431,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1161,8 +1446,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1171,10 +1461,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1193,8 +1488,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1203,17 +1513,22 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>0</v>
+      <c r="E29" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F29" s="9">
         <v>0</v>
@@ -1224,129 +1539,219 @@
       <c r="H29" s="9">
         <v>0</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>5291</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2776</v>
+      </c>
+      <c r="G31" s="9">
+        <v>8819</v>
+      </c>
+      <c r="H31" s="9">
+        <v>6167</v>
+      </c>
+      <c r="I31" s="9">
+        <v>15786</v>
+      </c>
+      <c r="J31" s="9">
         <v>9386</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>4443</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>2095</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>7187</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>5582</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>21349</v>
+      </c>
+      <c r="F33" s="9">
+        <v>24560</v>
+      </c>
+      <c r="G33" s="9">
+        <v>18410</v>
+      </c>
+      <c r="H33" s="9">
+        <v>15610</v>
+      </c>
+      <c r="I33" s="9">
+        <v>20717</v>
+      </c>
+      <c r="J33" s="9">
         <v>24766</v>
       </c>
-      <c r="F33" s="9">
+      <c r="K33" s="9">
         <v>28866</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>44512</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>60145</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>43857</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>26640</v>
+      </c>
+      <c r="F34" s="13">
+        <v>27336</v>
+      </c>
+      <c r="G34" s="13">
+        <v>27229</v>
+      </c>
+      <c r="H34" s="13">
+        <v>21777</v>
+      </c>
+      <c r="I34" s="13">
+        <v>36503</v>
+      </c>
+      <c r="J34" s="13">
         <v>34152</v>
       </c>
-      <c r="F34" s="13">
+      <c r="K34" s="13">
         <v>33309</v>
       </c>
-      <c r="G34" s="13">
+      <c r="L34" s="13">
         <v>46607</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>67332</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>49440</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1355,8 +1760,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1365,8 +1775,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1375,10 +1790,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1397,8 +1817,23 @@
       <c r="I38" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1407,150 +1842,245 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9">
-        <v>0</v>
+      <c r="E40" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F40" s="9">
         <v>0</v>
       </c>
       <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
         <v>1</v>
       </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M40" s="9">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>28</v>
+      <c r="E41" s="11">
+        <v>0</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
+        <v>15044</v>
+      </c>
+      <c r="F42" s="9">
+        <v>25096</v>
+      </c>
+      <c r="G42" s="9">
+        <v>18098</v>
+      </c>
+      <c r="H42" s="9">
+        <v>30515</v>
+      </c>
+      <c r="I42" s="9">
+        <v>25429</v>
+      </c>
+      <c r="J42" s="9">
         <v>16759</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>23997</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>33836</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>29057</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>31450</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
+        <v>166648</v>
+      </c>
+      <c r="F44" s="9">
+        <v>160596</v>
+      </c>
+      <c r="G44" s="9">
+        <v>134579</v>
+      </c>
+      <c r="H44" s="9">
+        <v>164676</v>
+      </c>
+      <c r="I44" s="9">
+        <v>148085</v>
+      </c>
+      <c r="J44" s="9">
         <v>151911</v>
       </c>
-      <c r="F44" s="9">
+      <c r="K44" s="9">
         <v>152371</v>
       </c>
-      <c r="G44" s="9">
+      <c r="L44" s="9">
         <v>158661</v>
       </c>
-      <c r="H44" s="9">
+      <c r="M44" s="9">
         <v>114754</v>
       </c>
-      <c r="I44" s="9">
+      <c r="N44" s="9">
         <v>136799</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
+        <v>181692</v>
+      </c>
+      <c r="F45" s="13">
+        <v>185692</v>
+      </c>
+      <c r="G45" s="13">
+        <v>152677</v>
+      </c>
+      <c r="H45" s="13">
+        <v>195191</v>
+      </c>
+      <c r="I45" s="13">
+        <v>173515</v>
+      </c>
+      <c r="J45" s="13">
         <v>168670</v>
       </c>
-      <c r="F45" s="13">
+      <c r="K45" s="13">
         <v>176368</v>
       </c>
-      <c r="G45" s="13">
+      <c r="L45" s="13">
         <v>192498</v>
       </c>
-      <c r="H45" s="13">
+      <c r="M45" s="13">
         <v>143811</v>
       </c>
-      <c r="I45" s="13">
+      <c r="N45" s="13">
         <v>168249</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1559,8 +2089,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1569,8 +2104,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1579,10 +2119,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1601,8 +2146,23 @@
       <c r="I49" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1611,150 +2171,245 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9">
-        <v>0</v>
+      <c r="E51" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F51" s="9">
         <v>0</v>
       </c>
       <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
         <v>1</v>
       </c>
-      <c r="H51" s="9">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M51" s="9">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>28</v>
+      <c r="E52" s="11">
+        <v>0</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I52" s="11">
+        <v>1</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>17559</v>
+      </c>
+      <c r="F53" s="9">
+        <v>19053</v>
+      </c>
+      <c r="G53" s="9">
+        <v>20750</v>
+      </c>
+      <c r="H53" s="9">
+        <v>20896</v>
+      </c>
+      <c r="I53" s="9">
+        <v>31829</v>
+      </c>
+      <c r="J53" s="9">
         <v>21702</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>26345</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>28744</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>30662</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>30082</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>163437</v>
+      </c>
+      <c r="F55" s="9">
+        <v>166746</v>
+      </c>
+      <c r="G55" s="9">
+        <v>137378</v>
+      </c>
+      <c r="H55" s="9">
+        <v>159569</v>
+      </c>
+      <c r="I55" s="9">
+        <v>144036</v>
+      </c>
+      <c r="J55" s="9">
         <v>147811</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>136725</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>143028</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>131042</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>145806</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>180996</v>
+      </c>
+      <c r="F56" s="13">
+        <v>185799</v>
+      </c>
+      <c r="G56" s="13">
+        <v>158128</v>
+      </c>
+      <c r="H56" s="13">
+        <v>180465</v>
+      </c>
+      <c r="I56" s="13">
+        <v>175866</v>
+      </c>
+      <c r="J56" s="13">
         <v>169513</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>163070</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>171773</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>161704</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>175888</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1763,8 +2418,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1773,8 +2433,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1783,10 +2448,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1805,8 +2475,23 @@
       <c r="I60" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1815,17 +2500,22 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9">
-        <v>0</v>
+      <c r="E62" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F62" s="9">
         <v>0</v>
@@ -1834,131 +2524,221 @@
         <v>0</v>
       </c>
       <c r="H62" s="9">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="9">
+        <v>0</v>
+      </c>
+      <c r="K62" s="9">
+        <v>0</v>
+      </c>
+      <c r="L62" s="9">
+        <v>0</v>
+      </c>
+      <c r="M62" s="9">
         <v>1</v>
       </c>
-      <c r="I62" s="9">
+      <c r="N62" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>28</v>
+      <c r="E63" s="11">
+        <v>0</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I63" s="11">
+        <v>1</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>2776</v>
+      </c>
+      <c r="F64" s="9">
+        <v>8819</v>
+      </c>
+      <c r="G64" s="9">
+        <v>6167</v>
+      </c>
+      <c r="H64" s="9">
+        <v>15786</v>
+      </c>
+      <c r="I64" s="9">
+        <v>9386</v>
+      </c>
+      <c r="J64" s="9">
         <v>4443</v>
       </c>
-      <c r="F64" s="9">
+      <c r="K64" s="9">
         <v>2095</v>
       </c>
-      <c r="G64" s="9">
+      <c r="L64" s="9">
         <v>7187</v>
       </c>
-      <c r="H64" s="9">
+      <c r="M64" s="9">
         <v>5582</v>
       </c>
-      <c r="I64" s="9">
+      <c r="N64" s="9">
         <v>6950</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
+        <v>24560</v>
+      </c>
+      <c r="F66" s="9">
+        <v>18410</v>
+      </c>
+      <c r="G66" s="9">
+        <v>15611</v>
+      </c>
+      <c r="H66" s="9">
+        <v>20717</v>
+      </c>
+      <c r="I66" s="9">
+        <v>24766</v>
+      </c>
+      <c r="J66" s="9">
         <v>28866</v>
       </c>
-      <c r="F66" s="9">
+      <c r="K66" s="9">
         <v>44512</v>
       </c>
-      <c r="G66" s="9">
+      <c r="L66" s="9">
         <v>60145</v>
       </c>
-      <c r="H66" s="9">
+      <c r="M66" s="9">
         <v>43857</v>
       </c>
-      <c r="I66" s="9">
+      <c r="N66" s="9">
         <v>34850</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
+        <v>27336</v>
+      </c>
+      <c r="F67" s="13">
+        <v>27229</v>
+      </c>
+      <c r="G67" s="13">
+        <v>21778</v>
+      </c>
+      <c r="H67" s="13">
+        <v>36503</v>
+      </c>
+      <c r="I67" s="13">
+        <v>34153</v>
+      </c>
+      <c r="J67" s="13">
         <v>33309</v>
       </c>
-      <c r="F67" s="13">
+      <c r="K67" s="13">
         <v>46607</v>
       </c>
-      <c r="G67" s="13">
+      <c r="L67" s="13">
         <v>67332</v>
       </c>
-      <c r="H67" s="13">
+      <c r="M67" s="13">
         <v>49440</v>
       </c>
-      <c r="I67" s="13">
+      <c r="N67" s="13">
         <v>41801</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1967,8 +2747,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1977,8 +2762,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1987,10 +2777,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2009,8 +2804,23 @@
       <c r="I71" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2019,150 +2829,245 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9">
+      <c r="E73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="9">
+        <v>4961916</v>
+      </c>
+      <c r="G73" s="9">
+        <v>8416486</v>
+      </c>
+      <c r="H73" s="9">
+        <v>10064537</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" s="9">
         <v>10058672</v>
       </c>
-      <c r="F73" s="9">
+      <c r="K73" s="9">
         <v>10339702</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>14308130</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>14459165</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>12337256</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
+        <v>209554</v>
+      </c>
+      <c r="F75" s="9">
+        <v>174807</v>
+      </c>
+      <c r="G75" s="9">
+        <v>794354</v>
+      </c>
+      <c r="H75" s="9">
+        <v>682685</v>
+      </c>
+      <c r="I75" s="9">
+        <v>1516409</v>
+      </c>
+      <c r="J75" s="9">
         <v>1252621</v>
       </c>
-      <c r="F75" s="9">
+      <c r="K75" s="9">
         <v>653874</v>
       </c>
-      <c r="G75" s="9">
+      <c r="L75" s="9">
         <v>378728</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>1604078</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>936828</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>641746</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1389268</v>
+      </c>
+      <c r="G77" s="9">
+        <v>1355179</v>
+      </c>
+      <c r="H77" s="9">
+        <v>1462773</v>
+      </c>
+      <c r="I77" s="9">
+        <v>1860964</v>
+      </c>
+      <c r="J77" s="9">
         <v>2554563</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>3414380</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>6011082</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>10636686</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>6433562</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
+        <v>851300</v>
+      </c>
+      <c r="F78" s="13">
+        <v>6525991</v>
+      </c>
+      <c r="G78" s="13">
+        <v>10566019</v>
+      </c>
+      <c r="H78" s="13">
+        <v>12209995</v>
+      </c>
+      <c r="I78" s="13">
+        <v>3377373</v>
+      </c>
+      <c r="J78" s="13">
         <v>13865856</v>
       </c>
-      <c r="F78" s="13">
+      <c r="K78" s="13">
         <v>14407956</v>
       </c>
-      <c r="G78" s="13">
+      <c r="L78" s="13">
         <v>20697940</v>
       </c>
-      <c r="H78" s="13">
+      <c r="M78" s="13">
         <v>26699929</v>
       </c>
-      <c r="I78" s="13">
+      <c r="N78" s="13">
         <v>19707646</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2171,8 +3076,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2181,8 +3091,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2191,10 +3106,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2213,8 +3133,23 @@
       <c r="I82" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2223,150 +3158,245 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D84" s="9"/>
-      <c r="E84" s="9">
+      <c r="E84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="9">
+        <v>6313204</v>
+      </c>
+      <c r="G84" s="9">
+        <v>5492935</v>
+      </c>
+      <c r="H84" s="9">
+        <v>3753455</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J84" s="9">
         <v>4616925</v>
       </c>
-      <c r="F84" s="9">
+      <c r="K84" s="9">
         <v>8235005</v>
       </c>
-      <c r="G84" s="9">
+      <c r="L84" s="9">
         <v>3786474</v>
       </c>
-      <c r="H84" s="9">
+      <c r="M84" s="9">
         <v>4776441</v>
       </c>
-      <c r="I84" s="9">
+      <c r="N84" s="9">
         <v>3924573</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>28</v>
+      <c r="E85" s="11">
+        <v>5434655</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I85" s="11">
+        <v>8683205</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
+        <v>887849</v>
+      </c>
+      <c r="F86" s="9">
+        <v>2049799</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1991063</v>
+      </c>
+      <c r="H86" s="9">
+        <v>3372308</v>
+      </c>
+      <c r="I86" s="9">
+        <v>3095608</v>
+      </c>
+      <c r="J86" s="9">
         <v>2641757</v>
       </c>
-      <c r="F86" s="9">
+      <c r="K86" s="9">
         <v>3604846</v>
       </c>
-      <c r="G86" s="9">
+      <c r="L86" s="9">
         <v>7329045</v>
       </c>
-      <c r="H86" s="9">
+      <c r="M86" s="9">
         <v>5498426</v>
       </c>
-      <c r="I86" s="9">
+      <c r="N86" s="9">
         <v>4217217</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
+        <v>8134954</v>
+      </c>
+      <c r="F88" s="9">
+        <v>11167011</v>
+      </c>
+      <c r="G88" s="9">
+        <v>11959951</v>
+      </c>
+      <c r="H88" s="9">
+        <v>15417854</v>
+      </c>
+      <c r="I88" s="9">
+        <v>14662708</v>
+      </c>
+      <c r="J88" s="9">
         <v>17983834</v>
       </c>
-      <c r="F88" s="9">
+      <c r="K88" s="9">
         <v>19223512</v>
       </c>
-      <c r="G88" s="9">
+      <c r="L88" s="9">
         <v>28681025</v>
       </c>
-      <c r="H88" s="9">
+      <c r="M88" s="9">
         <v>16783493</v>
       </c>
-      <c r="I88" s="9">
+      <c r="N88" s="9">
         <v>15974140</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
+        <v>14457458</v>
+      </c>
+      <c r="F89" s="13">
+        <v>19530014</v>
+      </c>
+      <c r="G89" s="13">
+        <v>19443949</v>
+      </c>
+      <c r="H89" s="13">
+        <v>22543617</v>
+      </c>
+      <c r="I89" s="13">
+        <v>26441521</v>
+      </c>
+      <c r="J89" s="13">
         <v>25242516</v>
       </c>
-      <c r="F89" s="13">
+      <c r="K89" s="13">
         <v>31063363</v>
       </c>
-      <c r="G89" s="13">
+      <c r="L89" s="13">
         <v>39796544</v>
       </c>
-      <c r="H89" s="13">
+      <c r="M89" s="13">
         <v>27058360</v>
       </c>
-      <c r="I89" s="13">
+      <c r="N89" s="13">
         <v>24115930</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2375,8 +3405,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2385,8 +3420,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2395,10 +3435,15 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2417,8 +3462,23 @@
       <c r="I93" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2427,150 +3487,245 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9">
+      <c r="E95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="9">
+        <v>2858634</v>
+      </c>
+      <c r="G95" s="9">
+        <v>3844885</v>
+      </c>
+      <c r="H95" s="9">
+        <v>3601827</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" s="9">
         <v>4335895</v>
       </c>
-      <c r="F95" s="9">
+      <c r="K95" s="9">
         <v>4266578</v>
       </c>
-      <c r="G95" s="9">
+      <c r="L95" s="9">
         <v>3635439</v>
       </c>
-      <c r="H95" s="9">
+      <c r="M95" s="9">
         <v>6898350</v>
       </c>
-      <c r="I95" s="9">
+      <c r="N95" s="9">
         <v>5256320</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>28</v>
+      <c r="E96" s="11">
+        <v>3080057</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I96" s="11">
+        <v>8716862</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>922596</v>
+      </c>
+      <c r="F97" s="9">
+        <v>1430252</v>
+      </c>
+      <c r="G97" s="9">
+        <v>2102732</v>
+      </c>
+      <c r="H97" s="9">
+        <v>2538584</v>
+      </c>
+      <c r="I97" s="9">
+        <v>3359396</v>
+      </c>
+      <c r="J97" s="9">
         <v>3240504</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>3879992</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>6103695</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>6165676</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>4213216</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>7387432</v>
+      </c>
+      <c r="F99" s="9">
+        <v>11201100</v>
+      </c>
+      <c r="G99" s="9">
+        <v>11852357</v>
+      </c>
+      <c r="H99" s="9">
+        <v>15019663</v>
+      </c>
+      <c r="I99" s="9">
+        <v>13969109</v>
+      </c>
+      <c r="J99" s="9">
         <v>17124017</v>
       </c>
-      <c r="F99" s="9">
+      <c r="K99" s="9">
         <v>16626810</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>24055421</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>20986617</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>18216664</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>11390085</v>
+      </c>
+      <c r="F100" s="13">
+        <v>15489986</v>
+      </c>
+      <c r="G100" s="13">
+        <v>17799974</v>
+      </c>
+      <c r="H100" s="13">
+        <v>21160074</v>
+      </c>
+      <c r="I100" s="13">
+        <v>26045367</v>
+      </c>
+      <c r="J100" s="13">
         <v>24700416</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>24773380</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>33794555</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>34050643</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>27686200</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2579,8 +3734,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2589,8 +3749,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2599,10 +3764,15 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2621,8 +3791,23 @@
       <c r="I104" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2631,150 +3816,245 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="E106" s="9">
+      <c r="E106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" s="9">
+        <v>8416486</v>
+      </c>
+      <c r="G106" s="9">
+        <v>10064537</v>
+      </c>
+      <c r="H106" s="9">
+        <v>10216165</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J106" s="9">
         <v>10339702</v>
       </c>
-      <c r="F106" s="9">
+      <c r="K106" s="9">
         <v>14308129</v>
       </c>
-      <c r="G106" s="9">
+      <c r="L106" s="9">
         <v>14459165</v>
       </c>
-      <c r="H106" s="9">
+      <c r="M106" s="9">
         <v>12337256</v>
       </c>
-      <c r="I106" s="9">
+      <c r="N106" s="9">
         <v>11005508</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>28</v>
+      <c r="E107" s="11">
+        <v>4956399</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I107" s="11">
+        <v>10030880</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
+        <v>174807</v>
+      </c>
+      <c r="F108" s="9">
+        <v>794354</v>
+      </c>
+      <c r="G108" s="9">
+        <v>682685</v>
+      </c>
+      <c r="H108" s="9">
+        <v>1516409</v>
+      </c>
+      <c r="I108" s="9">
+        <v>1252621</v>
+      </c>
+      <c r="J108" s="9">
         <v>653874</v>
       </c>
-      <c r="F108" s="9">
+      <c r="K108" s="9">
         <v>378728</v>
       </c>
-      <c r="G108" s="9">
+      <c r="L108" s="9">
         <v>1604078</v>
       </c>
-      <c r="H108" s="9">
+      <c r="M108" s="9">
         <v>936828</v>
       </c>
-      <c r="I108" s="9">
+      <c r="N108" s="9">
         <v>940829</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
+        <v>1389268</v>
+      </c>
+      <c r="F110" s="9">
+        <v>1355179</v>
+      </c>
+      <c r="G110" s="9">
+        <v>1462773</v>
+      </c>
+      <c r="H110" s="9">
+        <v>1860964</v>
+      </c>
+      <c r="I110" s="9">
+        <v>2554563</v>
+      </c>
+      <c r="J110" s="9">
         <v>3414380</v>
       </c>
-      <c r="F110" s="9">
+      <c r="K110" s="9">
         <v>6011082</v>
       </c>
-      <c r="G110" s="9">
+      <c r="L110" s="9">
         <v>10636686</v>
       </c>
-      <c r="H110" s="9">
+      <c r="M110" s="9">
         <v>6433562</v>
       </c>
-      <c r="I110" s="9">
+      <c r="N110" s="9">
         <v>4191038</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
+        <v>6520474</v>
+      </c>
+      <c r="F111" s="13">
+        <v>10566019</v>
+      </c>
+      <c r="G111" s="13">
+        <v>12209995</v>
+      </c>
+      <c r="H111" s="13">
+        <v>13593538</v>
+      </c>
+      <c r="I111" s="13">
+        <v>13838064</v>
+      </c>
+      <c r="J111" s="13">
         <v>14407956</v>
       </c>
-      <c r="F111" s="13">
+      <c r="K111" s="13">
         <v>20697939</v>
       </c>
-      <c r="G111" s="13">
+      <c r="L111" s="13">
         <v>26699929</v>
       </c>
-      <c r="H111" s="13">
+      <c r="M111" s="13">
         <v>19707646</v>
       </c>
-      <c r="I111" s="13">
+      <c r="N111" s="13">
         <v>16137375</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2783,8 +4063,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2793,8 +4078,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2803,10 +4093,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2825,8 +4120,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2835,128 +4145,208 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I117" s="9">
+        <v>31</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" s="9">
         <v>12337256000000</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
+        <v>39605746</v>
+      </c>
+      <c r="F119" s="9">
+        <v>62970821</v>
+      </c>
+      <c r="G119" s="9">
+        <v>90073024</v>
+      </c>
+      <c r="H119" s="9">
+        <v>110699692</v>
+      </c>
+      <c r="I119" s="9">
+        <v>96060370</v>
+      </c>
+      <c r="J119" s="9">
         <v>133456318</v>
       </c>
-      <c r="F119" s="9">
+      <c r="K119" s="9">
         <v>147169480</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>180777088</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>223191596</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>167830168</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>30059769</v>
+      </c>
+      <c r="F121" s="9">
+        <v>56566287</v>
+      </c>
+      <c r="G121" s="9">
+        <v>73611027</v>
+      </c>
+      <c r="H121" s="9">
+        <v>93707431</v>
+      </c>
+      <c r="I121" s="9">
+        <v>89827871</v>
+      </c>
+      <c r="J121" s="9">
         <v>103147985</v>
       </c>
-      <c r="F121" s="9">
+      <c r="K121" s="9">
         <v>118283794</v>
       </c>
-      <c r="G121" s="9">
+      <c r="L121" s="9">
         <v>135044078</v>
       </c>
-      <c r="H121" s="9">
+      <c r="M121" s="9">
         <v>176850711</v>
       </c>
-      <c r="I121" s="9">
+      <c r="N121" s="9">
         <v>146694074</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2965,8 +4355,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2975,8 +4370,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2985,10 +4385,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3007,8 +4412,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3017,128 +4437,208 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G127" s="9">
+        <v>31</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L127" s="9">
         <v>3786474000000</v>
       </c>
-      <c r="H127" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I127" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I128" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I128" s="11">
+        <v>8683205000000</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>59016817</v>
+      </c>
+      <c r="F129" s="9">
+        <v>81678315</v>
+      </c>
+      <c r="G129" s="9">
+        <v>110015637</v>
+      </c>
+      <c r="H129" s="9">
+        <v>110513125</v>
+      </c>
+      <c r="I129" s="9">
+        <v>121735342</v>
+      </c>
+      <c r="J129" s="9">
         <v>157632138</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>150220694</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>216604947</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>189228964</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>134092750</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
+        <v>48815191</v>
+      </c>
+      <c r="F131" s="9">
+        <v>69534802</v>
+      </c>
+      <c r="G131" s="9">
+        <v>88869370</v>
+      </c>
+      <c r="H131" s="9">
+        <v>93625386</v>
+      </c>
+      <c r="I131" s="9">
+        <v>99015484</v>
+      </c>
+      <c r="J131" s="9">
         <v>118384014</v>
       </c>
-      <c r="F131" s="9">
+      <c r="K131" s="9">
         <v>126162537</v>
       </c>
-      <c r="G131" s="9">
+      <c r="L131" s="9">
         <v>180769219</v>
       </c>
-      <c r="H131" s="9">
+      <c r="M131" s="9">
         <v>146256279</v>
       </c>
-      <c r="I131" s="9">
+      <c r="N131" s="9">
         <v>116770883</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3147,8 +4647,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3157,8 +4662,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3167,10 +4677,15 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3189,8 +4704,23 @@
       <c r="I135" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3199,128 +4729,208 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G137" s="9">
+        <v>31</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L137" s="9">
         <v>3635439000000</v>
       </c>
-      <c r="H137" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I137" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N137" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I138" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I138" s="11">
+        <v>8716862000000</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M138" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
+        <v>52542628</v>
+      </c>
+      <c r="F139" s="9">
+        <v>75067024</v>
+      </c>
+      <c r="G139" s="9">
+        <v>101336482</v>
+      </c>
+      <c r="H139" s="9">
+        <v>121486600</v>
+      </c>
+      <c r="I139" s="9">
+        <v>105545132</v>
+      </c>
+      <c r="J139" s="9">
         <v>149318220</v>
       </c>
-      <c r="F139" s="9">
+      <c r="K139" s="9">
         <v>147276219</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>212346751</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>201085252</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>140057709</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M140" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
+        <v>45200487</v>
+      </c>
+      <c r="F141" s="9">
+        <v>67174625</v>
+      </c>
+      <c r="G141" s="9">
+        <v>86275510</v>
+      </c>
+      <c r="H141" s="9">
+        <v>94126447</v>
+      </c>
+      <c r="I141" s="9">
+        <v>96983456</v>
+      </c>
+      <c r="J141" s="9">
         <v>115850762</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>121607680</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>168186796</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>160151837</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>124937684</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3329,8 +4939,13 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3339,8 +4954,13 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3349,10 +4969,15 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3371,8 +4996,23 @@
       <c r="I145" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3381,128 +5021,208 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H147" s="9">
+        <v>31</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M147" s="9">
         <v>12337256000000</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>11005508000000</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I148" s="11">
+        <v>10030880000000</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N148" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="9">
+      <c r="E149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" s="9">
+        <v>133456318</v>
+      </c>
+      <c r="J149" s="9">
         <v>147169480</v>
       </c>
-      <c r="F149" s="9">
+      <c r="K149" s="9">
         <v>180777088</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>223191596</v>
       </c>
-      <c r="H149" s="9">
+      <c r="M149" s="9">
         <v>167830168</v>
       </c>
-      <c r="I149" s="9">
+      <c r="N149" s="9">
         <v>135371079</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D151" s="9"/>
-      <c r="E151" s="9">
+      <c r="E151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" s="9">
+        <v>103147985</v>
+      </c>
+      <c r="J151" s="9">
         <v>118283794</v>
       </c>
-      <c r="F151" s="9">
+      <c r="K151" s="9">
         <v>135044078</v>
       </c>
-      <c r="G151" s="9">
+      <c r="L151" s="9">
         <v>176850711</v>
       </c>
-      <c r="H151" s="9">
+      <c r="M151" s="9">
         <v>146694074</v>
       </c>
-      <c r="I151" s="9">
+      <c r="N151" s="9">
         <v>120259340</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3511,8 +5231,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3521,8 +5246,13 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3531,10 +5261,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3553,8 +5288,23 @@
       <c r="I155" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3563,32 +5313,52 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
+        <v>15923</v>
+      </c>
+      <c r="F157" s="9">
+        <v>14847</v>
+      </c>
+      <c r="G157" s="9">
+        <v>-39011</v>
+      </c>
+      <c r="H157" s="9">
+        <v>20199</v>
+      </c>
+      <c r="I157" s="9">
+        <v>61980</v>
+      </c>
+      <c r="J157" s="9">
         <v>-82179</v>
       </c>
-      <c r="F157" s="9">
-        <v>0</v>
-      </c>
-      <c r="G157" s="9">
-        <v>0</v>
-      </c>
-      <c r="H157" s="9">
-        <v>0</v>
-      </c>
-      <c r="I157" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K157" s="9">
+        <v>0</v>
+      </c>
+      <c r="L157" s="9">
+        <v>0</v>
+      </c>
+      <c r="M157" s="9">
+        <v>0</v>
+      </c>
+      <c r="N157" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -3607,10 +5377,25 @@
       <c r="I158" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="11">
+        <v>0</v>
+      </c>
+      <c r="K158" s="11">
+        <v>0</v>
+      </c>
+      <c r="L158" s="11">
+        <v>0</v>
+      </c>
+      <c r="M158" s="11">
+        <v>0</v>
+      </c>
+      <c r="N158" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -3629,10 +5414,25 @@
       <c r="I159" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="9">
+        <v>0</v>
+      </c>
+      <c r="K159" s="9">
+        <v>0</v>
+      </c>
+      <c r="L159" s="9">
+        <v>0</v>
+      </c>
+      <c r="M159" s="9">
+        <v>0</v>
+      </c>
+      <c r="N159" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -3651,10 +5451,25 @@
       <c r="I160" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="11">
+        <v>0</v>
+      </c>
+      <c r="K160" s="11">
+        <v>0</v>
+      </c>
+      <c r="L160" s="11">
+        <v>0</v>
+      </c>
+      <c r="M160" s="11">
+        <v>0</v>
+      </c>
+      <c r="N160" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -3673,76 +5488,136 @@
       <c r="I161" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="9">
+        <v>0</v>
+      </c>
+      <c r="K161" s="9">
+        <v>0</v>
+      </c>
+      <c r="L161" s="9">
+        <v>0</v>
+      </c>
+      <c r="M161" s="9">
+        <v>0</v>
+      </c>
+      <c r="N161" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
+        <v>497677</v>
+      </c>
+      <c r="F162" s="11">
+        <v>224931</v>
+      </c>
+      <c r="G162" s="11">
+        <v>311149</v>
+      </c>
+      <c r="H162" s="11">
+        <v>365926</v>
+      </c>
+      <c r="I162" s="11">
+        <v>401328</v>
+      </c>
+      <c r="J162" s="11">
         <v>329176</v>
       </c>
-      <c r="F162" s="11">
+      <c r="K162" s="11">
         <v>724249</v>
       </c>
-      <c r="G162" s="11">
+      <c r="L162" s="11">
         <v>582280</v>
       </c>
-      <c r="H162" s="11">
+      <c r="M162" s="11">
         <v>675765</v>
       </c>
-      <c r="I162" s="11">
+      <c r="N162" s="11">
         <v>622612</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
+        <v>29042</v>
+      </c>
+      <c r="F163" s="9">
+        <v>28871</v>
+      </c>
+      <c r="G163" s="9">
+        <v>32718</v>
+      </c>
+      <c r="H163" s="9">
+        <v>37669</v>
+      </c>
+      <c r="I163" s="9">
+        <v>668348</v>
+      </c>
+      <c r="J163" s="9">
         <v>981536</v>
       </c>
-      <c r="F163" s="9">
+      <c r="K163" s="9">
         <v>967560</v>
       </c>
-      <c r="G163" s="9">
+      <c r="L163" s="9">
         <v>1011644</v>
       </c>
-      <c r="H163" s="9">
+      <c r="M163" s="9">
         <v>1014525</v>
       </c>
-      <c r="I163" s="9">
+      <c r="N163" s="9">
         <v>1006519</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
+        <v>209615</v>
+      </c>
+      <c r="F164" s="11">
+        <v>167556</v>
+      </c>
+      <c r="G164" s="11">
+        <v>307667</v>
+      </c>
+      <c r="H164" s="11">
+        <v>365903</v>
+      </c>
+      <c r="I164" s="11">
+        <v>376645</v>
+      </c>
+      <c r="J164" s="11">
         <v>244993</v>
       </c>
-      <c r="F164" s="11">
+      <c r="K164" s="11">
         <v>509532</v>
       </c>
-      <c r="G164" s="11">
+      <c r="L164" s="11">
         <v>540466</v>
       </c>
-      <c r="H164" s="11">
+      <c r="M164" s="11">
         <v>775997</v>
       </c>
-      <c r="I164" s="11">
+      <c r="N164" s="11">
         <v>517726</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -3761,52 +5636,97 @@
       <c r="I165" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="9">
+        <v>0</v>
+      </c>
+      <c r="K165" s="9">
+        <v>0</v>
+      </c>
+      <c r="L165" s="9">
+        <v>0</v>
+      </c>
+      <c r="M165" s="9">
+        <v>0</v>
+      </c>
+      <c r="N165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
+        <v>192578</v>
+      </c>
+      <c r="F166" s="11">
+        <v>153547</v>
+      </c>
+      <c r="G166" s="11">
+        <v>324532</v>
+      </c>
+      <c r="H166" s="11">
+        <v>92387</v>
+      </c>
+      <c r="I166" s="11">
+        <v>327492</v>
+      </c>
+      <c r="J166" s="11">
         <v>260687</v>
       </c>
-      <c r="F166" s="11">
+      <c r="K166" s="11">
         <v>468984</v>
       </c>
-      <c r="G166" s="11">
+      <c r="L166" s="11">
         <v>231289</v>
       </c>
-      <c r="H166" s="11">
+      <c r="M166" s="11">
         <v>522333</v>
       </c>
-      <c r="I166" s="11">
+      <c r="N166" s="11">
         <v>312718</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
+        <v>944835</v>
+      </c>
+      <c r="F167" s="15">
+        <v>589752</v>
+      </c>
+      <c r="G167" s="15">
+        <v>937055</v>
+      </c>
+      <c r="H167" s="15">
+        <v>882084</v>
+      </c>
+      <c r="I167" s="15">
+        <v>1835793</v>
+      </c>
+      <c r="J167" s="15">
         <v>1734213</v>
       </c>
-      <c r="F167" s="15">
+      <c r="K167" s="15">
         <v>2670325</v>
       </c>
-      <c r="G167" s="15">
+      <c r="L167" s="15">
         <v>2365679</v>
       </c>
-      <c r="H167" s="15">
+      <c r="M167" s="15">
         <v>2988620</v>
       </c>
-      <c r="I167" s="15">
+      <c r="N167" s="15">
         <v>2459575</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3815,8 +5735,13 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3825,8 +5750,13 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3835,10 +5765,15 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -3847,8 +5782,13 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3857,13 +5797,18 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -3871,13 +5816,18 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
@@ -3885,123 +5835,128 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>

--- a/database/industries/ravankar/shaspa/cost/quarterly.xlsx
+++ b/database/industries/ravankar/shaspa/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A111916-3906-414F-B447-B8C6DB2DDD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC42F6DD-C134-45D5-BB95-19FCEA205A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -734,12 +734,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -754,7 +754,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +803,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -852,7 +852,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -889,7 +889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -904,7 +904,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -941,7 +941,7 @@
         <v>27686200</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -978,7 +978,7 @@
         <v>1137977</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>2459575</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>31283752</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>31283752</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>-30758</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>31252994</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>4427498</v>
       </c>
       <c r="H19" s="11">
         <v>4415592</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <v>2410292</v>
+        <v>8458643</v>
       </c>
       <c r="L19" s="11">
         <v>9667818</v>
@@ -1274,7 +1274,7 @@
         <v>10595505</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>-1541784</v>
       </c>
       <c r="G20" s="9">
-        <v>11906</v>
+        <v>-4415592</v>
       </c>
       <c r="H20" s="9">
         <v>-7234118</v>
@@ -1311,7 +1311,7 @@
         <v>-11412084</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>30436416</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>30436416</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1437,7 +1437,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1452,7 +1452,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1467,7 +1467,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1519,7 +1519,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>37</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>49440</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1766,7 +1766,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1781,7 +1781,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1796,7 +1796,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1848,7 +1848,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>31450</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>36</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>37</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>136799</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>17</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>168249</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2095,7 +2095,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2110,7 +2110,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2125,7 +2125,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>39</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2177,7 +2177,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>34</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>30082</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>36</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>37</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>145806</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>17</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>175888</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2424,7 +2424,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2439,7 +2439,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2454,7 +2454,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>40</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2506,7 +2506,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>34</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>6950</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>36</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>37</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>34850</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>17</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>41801</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2753,7 +2753,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2768,7 +2768,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2783,7 +2783,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>41</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2835,7 +2835,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>29</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>12337256</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>32</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>34</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>936828</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>36</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>37</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>6433562</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>17</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>19707646</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3082,7 +3082,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3097,7 +3097,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3112,7 +3112,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>43</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3164,7 +3164,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>29</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>3924573</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>32</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>34</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>4217217</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>36</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>37</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>15974140</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>17</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>24115930</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3411,7 +3411,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3426,7 +3426,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3441,7 +3441,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>44</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3493,7 +3493,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>29</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>5256320</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>32</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>34</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>4213216</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>36</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>37</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>18216664</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>17</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>27686200</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3740,7 +3740,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3755,7 +3755,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3770,7 +3770,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>45</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3822,7 +3822,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>29</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>11005508</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>32</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>34</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>940829</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>36</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>37</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>4191038</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>17</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>16137375</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4069,7 +4069,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4084,7 +4084,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4099,7 +4099,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>46</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4151,7 +4151,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>29</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>12337256000000</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>34</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>167830168</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>36</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>37</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>146694074</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4361,7 +4361,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4376,7 +4376,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4391,7 +4391,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>50</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4443,7 +4443,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>32</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>34</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>134092750</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>36</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>37</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>116770883</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4653,7 +4653,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4668,7 +4668,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4683,7 +4683,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>51</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4735,7 +4735,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>29</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>32</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>34</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>140057709</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>36</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>37</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>124937684</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4945,7 +4945,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4960,7 +4960,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4975,7 +4975,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>52</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -5027,7 +5027,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>29</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>11005508000000</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>32</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>34</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>135371079</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>36</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>37</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>120259340</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5237,7 +5237,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5252,7 +5252,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5267,7 +5267,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>53</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5319,7 +5319,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>54</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>55</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>56</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>57</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>58</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>59</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>622612</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>60</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>1006519</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>61</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>517726</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>62</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>63</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>312718</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>17</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>2459575</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5741,7 +5741,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5756,7 +5756,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5771,7 +5771,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
         <v>64</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5803,7 +5803,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>65</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>67</v>
       </c>
@@ -5841,7 +5841,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>69</v>
       </c>
@@ -5852,7 +5852,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>70</v>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>70</v>
       </c>
@@ -5874,7 +5874,7 @@
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>73</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>75</v>
       </c>
@@ -5896,7 +5896,7 @@
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>77</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>79</v>
       </c>
@@ -5918,7 +5918,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>80</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>81</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>82</v>
       </c>
@@ -5951,7 +5951,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>83</v>
       </c>
